--- a/rtss-pre1917/src/main/resources/csk/year-volumes/1910.xlsx
+++ b/rtss-pre1917/src/main/resources/csk/year-volumes/1910.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\csk\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6F4ADC-F8BD-431B-9DEE-C0FE363DFD28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF70F896-3DE2-4817-B918-2612BC07E07C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="1920" windowWidth="24885" windowHeight="19320" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
+    <workbookView xWindow="4950" yWindow="4680" windowWidth="24885" windowHeight="19320" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
@@ -202,9 +202,6 @@
     <t>всего</t>
   </si>
   <si>
-    <t>verification</t>
-  </si>
-  <si>
     <t>чр-м</t>
   </si>
   <si>
@@ -239,6 +236,9 @@
   </si>
   <si>
     <t>v-сс</t>
+  </si>
+  <si>
+    <t>verify:</t>
   </si>
 </sst>
 </file>
@@ -303,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -321,6 +321,7 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,7 +646,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -657,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92751CB6-2080-4F2A-93AB-D7595671A56D}">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,43 +685,43 @@
         <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -773,7 +774,7 @@
         <f>1000*J2/B2</f>
         <v>43.915029693924168</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="11">
         <f>C2-R2</f>
         <v>-1.5029693924169862E-2</v>
       </c>
@@ -781,7 +782,7 @@
         <f>1000*O2/B2</f>
         <v>24.287345820009136</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2" s="11">
         <f>D2-U2</f>
         <v>1.2654179990864378E-2</v>
       </c>
@@ -836,7 +837,7 @@
         <f>1000*J3/B3</f>
         <v>39.488764044943821</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="11">
         <f t="shared" ref="S3:S52" si="3">C3-R3</f>
         <v>1.1235955056179137E-2</v>
       </c>
@@ -844,7 +845,7 @@
         <f t="shared" ref="U3:U52" si="4">1000*O3/B3</f>
         <v>26.768860353130016</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="11">
         <f t="shared" ref="V3:V52" si="5">D3-U3</f>
         <v>3.1139646869984716E-2</v>
       </c>
@@ -899,7 +900,7 @@
         <f t="shared" ref="R4:R52" si="6">1000*J4/B4</f>
         <v>41.595936424709159</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="11">
         <f t="shared" si="3"/>
         <v>4.0635752908428913E-3</v>
       </c>
@@ -907,7 +908,7 @@
         <f t="shared" si="4"/>
         <v>31.687694576437817</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="11">
         <f t="shared" si="5"/>
         <v>1.2305423562182227E-2</v>
       </c>
@@ -962,7 +963,7 @@
         <f t="shared" si="6"/>
         <v>28.521978307125433</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="11">
         <f t="shared" si="3"/>
         <v>-2.1978307125433361E-2</v>
       </c>
@@ -970,7 +971,7 @@
         <f t="shared" si="4"/>
         <v>18.623696092168768</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="11">
         <f t="shared" si="5"/>
         <v>-2.3696092168766114E-2</v>
       </c>
@@ -1025,7 +1026,7 @@
         <f t="shared" si="6"/>
         <v>33.825181307595834</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="11">
         <f t="shared" si="3"/>
         <v>-2.5181307595836699E-2</v>
       </c>
@@ -1033,7 +1034,7 @@
         <f t="shared" si="4"/>
         <v>21.266154097824309</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="11">
         <f t="shared" si="5"/>
         <v>3.3845902175691833E-2</v>
       </c>
@@ -1088,7 +1089,7 @@
         <f t="shared" si="6"/>
         <v>45.994514478611741</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="11">
         <f t="shared" si="3"/>
         <v>5.4855213882589737E-3</v>
       </c>
@@ -1096,7 +1097,7 @@
         <f t="shared" si="4"/>
         <v>32.24959122316578</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="11">
         <f t="shared" si="5"/>
         <v>-4.959122316577691E-2</v>
       </c>
@@ -1151,7 +1152,7 @@
         <f t="shared" si="6"/>
         <v>44.510829436377058</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="11">
         <f t="shared" si="3"/>
         <v>-1.0829436377058244E-2</v>
       </c>
@@ -1159,7 +1160,7 @@
         <f t="shared" si="4"/>
         <v>29.886167856263846</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="11">
         <f t="shared" si="5"/>
         <v>1.3832143736152602E-2</v>
       </c>
@@ -1214,7 +1215,7 @@
         <f t="shared" si="6"/>
         <v>39.712465878070972</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="11">
         <f t="shared" si="3"/>
         <v>-1.2465878070969438E-2</v>
       </c>
@@ -1222,7 +1223,7 @@
         <f t="shared" si="4"/>
         <v>25.034966852983231</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="11">
         <f t="shared" si="5"/>
         <v>-3.4966852983231433E-2</v>
       </c>
@@ -1277,7 +1278,7 @@
         <f t="shared" si="6"/>
         <v>51.416055784015732</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="11">
         <f t="shared" si="3"/>
         <v>-1.6055784015733821E-2</v>
       </c>
@@ -1285,7 +1286,7 @@
         <f t="shared" si="4"/>
         <v>39.551522736754279</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="11">
         <f t="shared" si="5"/>
         <v>4.8477263245722213E-2</v>
       </c>
@@ -1340,7 +1341,7 @@
         <f t="shared" si="6"/>
         <v>54.152922337870294</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="11">
         <f t="shared" si="3"/>
         <v>4.7077662129709097E-2</v>
       </c>
@@ -1348,7 +1349,7 @@
         <f t="shared" si="4"/>
         <v>38.743261275687217</v>
       </c>
-      <c r="V11" s="6">
+      <c r="V11" s="11">
         <f t="shared" si="5"/>
         <v>-4.3261275687214606E-2</v>
       </c>
@@ -1403,7 +1404,7 @@
         <f t="shared" si="6"/>
         <v>32.227289030076342</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="11">
         <f t="shared" si="3"/>
         <v>-2.7289030076339316E-2</v>
       </c>
@@ -1411,7 +1412,7 @@
         <f t="shared" si="4"/>
         <v>21.340882307731722</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="11">
         <f t="shared" si="5"/>
         <v>-4.0882307731720857E-2</v>
       </c>
@@ -1466,7 +1467,7 @@
         <f t="shared" si="6"/>
         <v>46.701942053027487</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="11">
         <f t="shared" si="3"/>
         <v>-1.9420530274842918E-3</v>
       </c>
@@ -1474,7 +1475,7 @@
         <f t="shared" si="4"/>
         <v>38.714069158825041</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13" s="11">
         <f t="shared" si="5"/>
         <v>-1.4069158825037675E-2</v>
       </c>
@@ -1529,7 +1530,7 @@
         <f t="shared" si="6"/>
         <v>50.800966909482902</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="11">
         <f t="shared" si="3"/>
         <v>-9.6690948290500955E-4</v>
       </c>
@@ -1537,7 +1538,7 @@
         <f t="shared" si="4"/>
         <v>32.63123509620096</v>
       </c>
-      <c r="V14" s="6">
+      <c r="V14" s="11">
         <f t="shared" si="5"/>
         <v>-3.1235096200958878E-2</v>
       </c>
@@ -1592,7 +1593,7 @@
         <f t="shared" si="6"/>
         <v>46.368498708963479</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="11">
         <f t="shared" si="3"/>
         <v>3.1501291036519774E-2</v>
       </c>
@@ -1600,7 +1601,7 @@
         <f t="shared" si="4"/>
         <v>32.720029509406125</v>
       </c>
-      <c r="V15" s="6">
+      <c r="V15" s="11">
         <f t="shared" si="5"/>
         <v>-2.0029509406121804E-2</v>
       </c>
@@ -1655,7 +1656,7 @@
         <f t="shared" si="6"/>
         <v>44.618268329608533</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="11">
         <f t="shared" si="3"/>
         <v>-1.8268329608531531E-2</v>
       </c>
@@ -1663,7 +1664,7 @@
         <f t="shared" si="4"/>
         <v>35.035685963521018</v>
       </c>
-      <c r="V16" s="6">
+      <c r="V16" s="11">
         <f t="shared" si="5"/>
         <v>-3.5685963521018493E-2</v>
       </c>
@@ -1718,7 +1719,7 @@
         <f t="shared" si="6"/>
         <v>38.243634767339771</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="11">
         <f t="shared" si="3"/>
         <v>-4.3634767339767677E-2</v>
       </c>
@@ -1726,7 +1727,7 @@
         <f t="shared" si="4"/>
         <v>30.023266022827041</v>
       </c>
-      <c r="V17" s="6">
+      <c r="V17" s="11">
         <f t="shared" si="5"/>
         <v>-2.3266022827041155E-2</v>
       </c>
@@ -1781,7 +1782,7 @@
         <f t="shared" si="6"/>
         <v>27.570246072413987</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18" s="11">
         <f t="shared" si="3"/>
         <v>2.9753927586014584E-2</v>
       </c>
@@ -1789,7 +1790,7 @@
         <f t="shared" si="4"/>
         <v>20.79677909792218</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V18" s="11">
         <f t="shared" si="5"/>
         <v>3.2209020778211084E-3</v>
       </c>
@@ -1844,7 +1845,7 @@
         <f t="shared" si="6"/>
         <v>46.815803398200956</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19" s="11">
         <f t="shared" si="3"/>
         <v>-1.5803398200958441E-2</v>
       </c>
@@ -1852,7 +1853,7 @@
         <f t="shared" si="4"/>
         <v>34.270092304074311</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="11">
         <f t="shared" si="5"/>
         <v>2.9907695925686539E-2</v>
       </c>
@@ -1907,7 +1908,7 @@
         <f t="shared" si="6"/>
         <v>21.002428494333515</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S20" s="11">
         <f t="shared" si="3"/>
         <v>-2.4284943335146636E-3</v>
       </c>
@@ -1915,7 +1916,7 @@
         <f t="shared" si="4"/>
         <v>16.106314085267133</v>
       </c>
-      <c r="V20" s="6">
+      <c r="V20" s="11">
         <f t="shared" si="5"/>
         <v>-6.3140852671317305E-3</v>
       </c>
@@ -1970,7 +1971,7 @@
         <f t="shared" si="6"/>
         <v>45.405575628998577</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="11">
         <f t="shared" si="3"/>
         <v>-5.5756289985779972E-3</v>
       </c>
@@ -1978,7 +1979,7 @@
         <f t="shared" si="4"/>
         <v>28.24974309676136</v>
       </c>
-      <c r="V21" s="6">
+      <c r="V21" s="11">
         <f t="shared" si="5"/>
         <v>-4.9743096761361016E-2</v>
       </c>
@@ -2033,7 +2034,7 @@
         <f t="shared" si="6"/>
         <v>22.21863405249416</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22" s="11">
         <f t="shared" si="3"/>
         <v>-1.8634052494160613E-2</v>
       </c>
@@ -2041,7 +2042,7 @@
         <f t="shared" si="4"/>
         <v>17.997801291741101</v>
       </c>
-      <c r="V22" s="6">
+      <c r="V22" s="11">
         <f t="shared" si="5"/>
         <v>2.1987082588985629E-3</v>
       </c>
@@ -2096,7 +2097,7 @@
         <f t="shared" si="6"/>
         <v>38.512831449491721</v>
       </c>
-      <c r="S23" s="6">
+      <c r="S23" s="11">
         <f t="shared" si="3"/>
         <v>-1.2831449491720548E-2</v>
       </c>
@@ -2104,7 +2105,7 @@
         <f t="shared" si="4"/>
         <v>20.773796829459016</v>
       </c>
-      <c r="V23" s="6">
+      <c r="V23" s="11">
         <f t="shared" si="5"/>
         <v>2.6203170540984644E-2</v>
       </c>
@@ -2159,7 +2160,7 @@
         <f t="shared" si="6"/>
         <v>37.304618718678043</v>
       </c>
-      <c r="S24" s="6">
+      <c r="S24" s="11">
         <f t="shared" si="3"/>
         <v>-4.6187186780457523E-3</v>
       </c>
@@ -2167,7 +2168,7 @@
         <f t="shared" si="4"/>
         <v>21.466883380739535</v>
       </c>
-      <c r="V24" s="6">
+      <c r="V24" s="11">
         <f t="shared" si="5"/>
         <v>3.311661926046483E-2</v>
       </c>
@@ -2222,7 +2223,7 @@
         <f t="shared" si="6"/>
         <v>41.1133918019531</v>
       </c>
-      <c r="S25" s="6">
+      <c r="S25" s="11">
         <f t="shared" si="3"/>
         <v>-1.3391801953098081E-2</v>
       </c>
@@ -2230,7 +2231,7 @@
         <f t="shared" si="4"/>
         <v>30.689805311936308</v>
       </c>
-      <c r="V25" s="6">
+      <c r="V25" s="11">
         <f t="shared" si="5"/>
         <v>1.0194688063691615E-2</v>
       </c>
@@ -2285,7 +2286,7 @@
         <f t="shared" si="6"/>
         <v>49.801430500675238</v>
       </c>
-      <c r="S26" s="6">
+      <c r="S26" s="11">
         <f t="shared" si="3"/>
         <v>-1.4305006752408644E-3</v>
       </c>
@@ -2293,7 +2294,7 @@
         <f t="shared" si="4"/>
         <v>32.894513079577855</v>
       </c>
-      <c r="V26" s="6">
+      <c r="V26" s="11">
         <f t="shared" si="5"/>
         <v>5.486920422143271E-3</v>
       </c>
@@ -2348,7 +2349,7 @@
         <f t="shared" si="6"/>
         <v>40.424168446750073</v>
       </c>
-      <c r="S27" s="6">
+      <c r="S27" s="11">
         <f t="shared" si="3"/>
         <v>-2.4168446750074679E-2</v>
       </c>
@@ -2356,7 +2357,7 @@
         <f t="shared" si="4"/>
         <v>29.398840402807444</v>
       </c>
-      <c r="V27" s="6">
+      <c r="V27" s="11">
         <f t="shared" si="5"/>
         <v>1.1595971925544291E-3</v>
       </c>
@@ -2411,7 +2412,7 @@
         <f t="shared" si="6"/>
         <v>44.582769508344612</v>
       </c>
-      <c r="S28" s="6">
+      <c r="S28" s="11">
         <f t="shared" si="3"/>
         <v>1.7230491655389812E-2</v>
       </c>
@@ -2419,7 +2420,7 @@
         <f t="shared" si="4"/>
         <v>34.217410915651783</v>
       </c>
-      <c r="V28" s="6">
+      <c r="V28" s="11">
         <f t="shared" si="5"/>
         <v>-1.7410915651780101E-2</v>
       </c>
@@ -2474,7 +2475,7 @@
         <f t="shared" si="6"/>
         <v>61.155820259539027</v>
       </c>
-      <c r="S29" s="6">
+      <c r="S29" s="11">
         <f t="shared" si="3"/>
         <v>4.4179740460975836E-2</v>
       </c>
@@ -2482,7 +2483,7 @@
         <f t="shared" si="4"/>
         <v>41.96978500871586</v>
       </c>
-      <c r="V29" s="6">
+      <c r="V29" s="11">
         <f t="shared" si="5"/>
         <v>3.0214991284140069E-2</v>
       </c>
@@ -2537,7 +2538,7 @@
         <f t="shared" si="6"/>
         <v>46.373430475895212</v>
       </c>
-      <c r="S30" s="6">
+      <c r="S30" s="11">
         <f t="shared" si="3"/>
         <v>2.6569524104786524E-2</v>
       </c>
@@ -2545,7 +2546,7 @@
         <f t="shared" si="4"/>
         <v>32.246550922337619</v>
       </c>
-      <c r="V30" s="6">
+      <c r="V30" s="11">
         <f t="shared" si="5"/>
         <v>-4.655092233761593E-2</v>
       </c>
@@ -2600,7 +2601,7 @@
         <f t="shared" si="6"/>
         <v>55.213149287654524</v>
       </c>
-      <c r="S31" s="6">
+      <c r="S31" s="11">
         <f t="shared" si="3"/>
         <v>-1.3149287654520947E-2</v>
       </c>
@@ -2608,7 +2609,7 @@
         <f t="shared" si="4"/>
         <v>35.527468263207496</v>
       </c>
-      <c r="V31" s="6">
+      <c r="V31" s="11">
         <f t="shared" si="5"/>
         <v>-2.7468263207495625E-2</v>
       </c>
@@ -2663,7 +2664,7 @@
         <f t="shared" si="6"/>
         <v>57.656786020583191</v>
       </c>
-      <c r="S32" s="6">
+      <c r="S32" s="11">
         <f t="shared" si="3"/>
         <v>4.3213979416812265E-2</v>
       </c>
@@ -2671,7 +2672,7 @@
         <f t="shared" si="4"/>
         <v>38.676565180102919</v>
       </c>
-      <c r="V32" s="6">
+      <c r="V32" s="11">
         <f t="shared" si="5"/>
         <v>2.3434819897083514E-2</v>
       </c>
@@ -2726,7 +2727,7 @@
         <f t="shared" si="6"/>
         <v>38.187087640569487</v>
       </c>
-      <c r="S33" s="6">
+      <c r="S33" s="11">
         <f t="shared" si="3"/>
         <v>1.2912359430515608E-2</v>
       </c>
@@ -2734,7 +2735,7 @@
         <f t="shared" si="4"/>
         <v>28.907765045276065</v>
       </c>
-      <c r="V33" s="6">
+      <c r="V33" s="11">
         <f t="shared" si="5"/>
         <v>-7.7650452760664734E-3</v>
       </c>
@@ -2789,7 +2790,7 @@
         <f t="shared" si="6"/>
         <v>36.263791514203511</v>
       </c>
-      <c r="S34" s="6">
+      <c r="S34" s="11">
         <f t="shared" si="3"/>
         <v>3.6208485796485945E-2</v>
       </c>
@@ -2797,7 +2798,7 @@
         <f t="shared" si="4"/>
         <v>22.076198988855062</v>
       </c>
-      <c r="V34" s="6">
+      <c r="V34" s="11">
         <f t="shared" si="5"/>
         <v>2.3801011144939821E-2</v>
       </c>
@@ -2852,7 +2853,7 @@
         <f t="shared" si="6"/>
         <v>41.682167109536465</v>
       </c>
-      <c r="S35" s="6">
+      <c r="S35" s="11">
         <f t="shared" si="3"/>
         <v>1.7832890463537865E-2</v>
       </c>
@@ -2860,7 +2861,7 @@
         <f t="shared" si="4"/>
         <v>27.329495128432242</v>
       </c>
-      <c r="V35" s="6">
+      <c r="V35" s="11">
         <f t="shared" si="5"/>
         <v>-2.9495128432241557E-2</v>
       </c>
@@ -2915,7 +2916,7 @@
         <f t="shared" si="6"/>
         <v>45.330925095499083</v>
       </c>
-      <c r="S36" s="6">
+      <c r="S36" s="11">
         <f t="shared" si="3"/>
         <v>-3.0925095499085842E-2</v>
       </c>
@@ -2923,7 +2924,7 @@
         <f t="shared" si="4"/>
         <v>29.385484138847367</v>
       </c>
-      <c r="V36" s="6">
+      <c r="V36" s="11">
         <f t="shared" si="5"/>
         <v>1.451586115263126E-2</v>
       </c>
@@ -2978,7 +2979,7 @@
         <f t="shared" si="6"/>
         <v>58.286923402454505</v>
       </c>
-      <c r="S37" s="6">
+      <c r="S37" s="11">
         <f t="shared" si="3"/>
         <v>1.3076597545492064E-2</v>
       </c>
@@ -2986,7 +2987,7 @@
         <f t="shared" si="4"/>
         <v>45.926646917759911</v>
       </c>
-      <c r="V37" s="6">
+      <c r="V37" s="11">
         <f t="shared" si="5"/>
         <v>-2.6646917759912014E-2</v>
       </c>
@@ -3041,7 +3042,7 @@
         <f t="shared" si="6"/>
         <v>27.254153803461794</v>
       </c>
-      <c r="S38" s="6">
+      <c r="S38" s="11">
         <f t="shared" si="3"/>
         <v>4.5846196538207096E-2</v>
       </c>
@@ -3049,7 +3050,7 @@
         <f t="shared" si="4"/>
         <v>25.105275937424121</v>
       </c>
-      <c r="V38" s="6">
+      <c r="V38" s="11">
         <f t="shared" si="5"/>
         <v>-5.2759374241198032E-3</v>
       </c>
@@ -3061,8 +3062,8 @@
       <c r="B39" s="3">
         <v>3094700</v>
       </c>
-      <c r="C39" s="5">
-        <v>49.6</v>
+      <c r="C39" s="10">
+        <v>49</v>
       </c>
       <c r="D39" s="6">
         <v>37.299999999999997</v>
@@ -3072,7 +3073,7 @@
       </c>
       <c r="F39" s="6">
         <f t="shared" si="0"/>
-        <v>0.60000000000000497</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2">
         <v>77386</v>
@@ -3104,15 +3105,15 @@
         <f t="shared" si="6"/>
         <v>48.989885934016222</v>
       </c>
-      <c r="S39" s="6">
-        <f t="shared" si="3"/>
-        <v>0.6101140659837796</v>
+      <c r="S39" s="11">
+        <f t="shared" si="3"/>
+        <v>1.0114065983778175E-2</v>
       </c>
       <c r="U39" s="6">
         <f t="shared" si="4"/>
         <v>37.259508191424047</v>
       </c>
-      <c r="V39" s="6">
+      <c r="V39" s="11">
         <f t="shared" si="5"/>
         <v>4.0491808575950472E-2</v>
       </c>
@@ -3167,7 +3168,7 @@
         <f t="shared" si="6"/>
         <v>55.371952166485478</v>
       </c>
-      <c r="S40" s="6">
+      <c r="S40" s="11">
         <f t="shared" si="3"/>
         <v>2.8047833514520448E-2</v>
       </c>
@@ -3175,7 +3176,7 @@
         <f t="shared" si="4"/>
         <v>39.261790133043434</v>
       </c>
-      <c r="V40" s="6">
+      <c r="V40" s="11">
         <f t="shared" si="5"/>
         <v>3.8209866956563587E-2</v>
       </c>
@@ -3230,7 +3231,7 @@
         <f t="shared" si="6"/>
         <v>45.760668855149774</v>
       </c>
-      <c r="S41" s="6">
+      <c r="S41" s="11">
         <f t="shared" si="3"/>
         <v>3.9331144850223154E-2</v>
       </c>
@@ -3238,7 +3239,7 @@
         <f t="shared" si="4"/>
         <v>34.658904390644231</v>
       </c>
-      <c r="V41" s="6">
+      <c r="V41" s="11">
         <f t="shared" si="5"/>
         <v>4.1095609355771501E-2</v>
       </c>
@@ -3293,7 +3294,7 @@
         <f t="shared" si="6"/>
         <v>44.881142735316061</v>
       </c>
-      <c r="S42" s="6">
+      <c r="S42" s="11">
         <f t="shared" si="3"/>
         <v>1.8857264683937558E-2</v>
       </c>
@@ -3301,7 +3302,7 @@
         <f t="shared" si="4"/>
         <v>26.392708666453469</v>
       </c>
-      <c r="V42" s="6">
+      <c r="V42" s="11">
         <f t="shared" si="5"/>
         <v>7.2913335465294438E-3</v>
       </c>
@@ -3356,7 +3357,7 @@
         <f t="shared" si="6"/>
         <v>50.301503120513345</v>
       </c>
-      <c r="S43" s="6">
+      <c r="S43" s="11">
         <f t="shared" si="3"/>
         <v>-1.5031205133482217E-3</v>
       </c>
@@ -3364,7 +3365,7 @@
         <f t="shared" si="4"/>
         <v>31.029329895396877</v>
       </c>
-      <c r="V43" s="6">
+      <c r="V43" s="11">
         <f t="shared" si="5"/>
         <v>-2.9329895396877248E-2</v>
       </c>
@@ -3419,7 +3420,7 @@
         <f t="shared" si="6"/>
         <v>42.525261804152123</v>
       </c>
-      <c r="S44" s="6">
+      <c r="S44" s="11">
         <f t="shared" si="3"/>
         <v>-2.5261804152123091E-2</v>
       </c>
@@ -3427,7 +3428,7 @@
         <f t="shared" si="4"/>
         <v>32.318574315634763</v>
       </c>
-      <c r="V44" s="6">
+      <c r="V44" s="11">
         <f t="shared" si="5"/>
         <v>-1.8574315634765526E-2</v>
       </c>
@@ -3482,7 +3483,7 @@
         <f t="shared" si="6"/>
         <v>50.221570727857021</v>
       </c>
-      <c r="S45" s="6">
+      <c r="S45" s="11">
         <f t="shared" si="3"/>
         <v>-2.1570727857017857E-2</v>
       </c>
@@ -3490,7 +3491,7 @@
         <f t="shared" si="4"/>
         <v>35.479506117156227</v>
       </c>
-      <c r="V45" s="6">
+      <c r="V45" s="11">
         <f t="shared" si="5"/>
         <v>2.0493882843773292E-2</v>
       </c>
@@ -3545,7 +3546,7 @@
         <f t="shared" si="6"/>
         <v>55.962223682844986</v>
       </c>
-      <c r="S46" s="6">
+      <c r="S46" s="11">
         <f t="shared" si="3"/>
         <v>3.7776317155014283E-2</v>
       </c>
@@ -3553,7 +3554,7 @@
         <f t="shared" si="4"/>
         <v>32.222299097104511</v>
       </c>
-      <c r="V46" s="6">
+      <c r="V46" s="11">
         <f t="shared" si="5"/>
         <v>-2.2299097104507837E-2</v>
       </c>
@@ -3608,7 +3609,7 @@
         <f t="shared" si="6"/>
         <v>42.354354724421576</v>
       </c>
-      <c r="S47" s="6">
+      <c r="S47" s="11">
         <f t="shared" si="3"/>
         <v>4.5645275578422684E-2</v>
       </c>
@@ -3616,7 +3617,7 @@
         <f t="shared" si="4"/>
         <v>29.626605872023166</v>
       </c>
-      <c r="V47" s="6">
+      <c r="V47" s="11">
         <f t="shared" si="5"/>
         <v>-2.6605872023164778E-2</v>
       </c>
@@ -3671,7 +3672,7 @@
         <f t="shared" si="6"/>
         <v>40.623712686025932</v>
       </c>
-      <c r="S48" s="6">
+      <c r="S48" s="11">
         <f t="shared" si="3"/>
         <v>-2.3712686025930907E-2</v>
       </c>
@@ -3679,7 +3680,7 @@
         <f t="shared" si="4"/>
         <v>31.062922456557686</v>
       </c>
-      <c r="V48" s="6">
+      <c r="V48" s="11">
         <f t="shared" si="5"/>
         <v>3.7077543442315175E-2</v>
       </c>
@@ -3734,7 +3735,7 @@
         <f t="shared" si="6"/>
         <v>36.628801882036633</v>
       </c>
-      <c r="S49" s="6">
+      <c r="S49" s="11">
         <f t="shared" si="3"/>
         <v>-2.880188203663181E-2</v>
       </c>
@@ -3742,7 +3743,7 @@
         <f t="shared" si="4"/>
         <v>24.83683414552176</v>
       </c>
-      <c r="V49" s="6">
+      <c r="V49" s="11">
         <f t="shared" si="5"/>
         <v>-3.6834145521758899E-2</v>
       </c>
@@ -3797,7 +3798,7 @@
         <f t="shared" si="6"/>
         <v>26.086863500213951</v>
       </c>
-      <c r="S50" s="6">
+      <c r="S50" s="11">
         <f t="shared" si="3"/>
         <v>1.3136499786050138E-2</v>
       </c>
@@ -3805,7 +3806,7 @@
         <f t="shared" si="4"/>
         <v>17.552417629439454</v>
       </c>
-      <c r="V50" s="6">
+      <c r="V50" s="11">
         <f t="shared" si="5"/>
         <v>4.7582370560547815E-2</v>
       </c>
@@ -3860,7 +3861,7 @@
         <f t="shared" si="6"/>
         <v>40.905359927768203</v>
       </c>
-      <c r="S51" s="6">
+      <c r="S51" s="11">
         <f t="shared" si="3"/>
         <v>-5.3599277682039315E-3</v>
       </c>
@@ -3868,7 +3869,7 @@
         <f t="shared" si="4"/>
         <v>32.227694328162194</v>
       </c>
-      <c r="V51" s="6">
+      <c r="V51" s="11">
         <f t="shared" si="5"/>
         <v>-2.7694328162191084E-2</v>
       </c>
@@ -3923,7 +3924,7 @@
         <f t="shared" si="6"/>
         <v>43.983095544213271</v>
       </c>
-      <c r="S52" s="6">
+      <c r="S52" s="11">
         <f t="shared" si="3"/>
         <v>1.69044557867295E-2</v>
       </c>
@@ -3931,7 +3932,7 @@
         <f t="shared" si="4"/>
         <v>30.812642281697119</v>
       </c>
-      <c r="V52" s="6">
+      <c r="V52" s="11">
         <f t="shared" si="5"/>
         <v>-1.2642281697118563E-2</v>
       </c>
@@ -3943,7 +3944,7 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B54" s="4">
         <f>SUM(B2:B51)</f>
